--- a/test/Refinery/Resources/spreadsheet_examples/test_spreadsheet_metadata.xlsx
+++ b/test/Refinery/Resources/spreadsheet_examples/test_spreadsheet_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Refinery\test\Refinery\Resources\spreadsheet_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11339506-71F4-473E-9429-76C5223FB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D424F4A-5447-4232-BD48-97C7DE8C35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{B9DC3F35-540D-427A-8FFD-FADD2E346C6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9DC3F35-540D-427A-8FFD-FADD2E346C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>key1</t>
   </si>
@@ -85,6 +85,54 @@
   </si>
   <si>
     <t>three</t>
+  </si>
+  <si>
+    <t>value1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -168,14 +216,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,66 +542,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F966C55A-5868-4DBF-A5B5-A31C34A95F91}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -615,8 +663,216 @@
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44228</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44229</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44230</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>111</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44256</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>222</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44257</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>333</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44258</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G1:H1"/>
